--- a/Financials/Quarterly/CEO_QTR_FIN.xlsx
+++ b/Financials/Quarterly/CEO_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9737E7D1-BD6F-419B-81A3-24D8DF029560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CEO" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>CEO</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,39 +689,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,94 +750,94 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15364500</v>
+        <v>15679400</v>
       </c>
       <c r="E8" s="3">
-        <v>13674500</v>
+        <v>13954700</v>
       </c>
       <c r="F8" s="3">
-        <v>13432200</v>
+        <v>13707400</v>
       </c>
       <c r="G8" s="3">
-        <v>11584700</v>
+        <v>11822000</v>
       </c>
       <c r="H8" s="3">
-        <v>9719400</v>
+        <v>9918500</v>
       </c>
       <c r="I8" s="3">
-        <v>11903200</v>
+        <v>12147100</v>
       </c>
       <c r="J8" s="3">
-        <v>13028900</v>
+        <v>13295900</v>
       </c>
       <c r="K8" s="3">
         <v>19754300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3552400</v>
+        <v>3625200</v>
       </c>
       <c r="E9" s="3">
-        <v>3947400</v>
+        <v>4028300</v>
       </c>
       <c r="F9" s="3">
-        <v>3612000</v>
+        <v>3686100</v>
       </c>
       <c r="G9" s="3">
-        <v>3128100</v>
+        <v>3192200</v>
       </c>
       <c r="H9" s="3">
-        <v>3013300</v>
+        <v>3075100</v>
       </c>
       <c r="I9" s="3">
-        <v>3498200</v>
+        <v>3569900</v>
       </c>
       <c r="J9" s="3">
-        <v>3521900</v>
+        <v>3594000</v>
       </c>
       <c r="K9" s="3">
         <v>7711700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11812100</v>
+        <v>12054200</v>
       </c>
       <c r="E10" s="3">
-        <v>9727100</v>
+        <v>9926400</v>
       </c>
       <c r="F10" s="3">
-        <v>9820200</v>
+        <v>10021400</v>
       </c>
       <c r="G10" s="3">
-        <v>8456600</v>
+        <v>8629900</v>
       </c>
       <c r="H10" s="3">
-        <v>6706100</v>
+        <v>6843500</v>
       </c>
       <c r="I10" s="3">
-        <v>8405000</v>
+        <v>8577200</v>
       </c>
       <c r="J10" s="3">
-        <v>9507000</v>
+        <v>9701900</v>
       </c>
       <c r="K10" s="3">
         <v>12042600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,36 +850,36 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>328700</v>
+        <v>335400</v>
       </c>
       <c r="E12" s="3">
-        <v>612000</v>
+        <v>624500</v>
       </c>
       <c r="F12" s="3">
-        <v>388700</v>
+        <v>396700</v>
       </c>
       <c r="G12" s="3">
-        <v>573000</v>
+        <v>584700</v>
       </c>
       <c r="H12" s="3">
-        <v>497200</v>
+        <v>507400</v>
       </c>
       <c r="I12" s="3">
-        <v>788100</v>
+        <v>804200</v>
       </c>
       <c r="J12" s="3">
-        <v>651700</v>
+        <v>665000</v>
       </c>
       <c r="K12" s="3">
         <v>986500</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,65 +908,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="E14" s="3">
-        <v>1283400</v>
+        <v>1309700</v>
       </c>
       <c r="F14" s="3">
-        <v>44400</v>
+        <v>45300</v>
       </c>
       <c r="G14" s="3">
-        <v>263500</v>
+        <v>268900</v>
       </c>
       <c r="H14" s="3">
-        <v>1506500</v>
+        <v>1537400</v>
       </c>
       <c r="I14" s="3">
-        <v>197900</v>
+        <v>202000</v>
       </c>
       <c r="J14" s="3">
-        <v>201400</v>
+        <v>205500</v>
       </c>
       <c r="K14" s="3">
         <v>599200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3958800</v>
+        <v>4039900</v>
       </c>
       <c r="E15" s="3">
-        <v>4280400</v>
+        <v>4368200</v>
       </c>
       <c r="F15" s="3">
-        <v>4628200</v>
+        <v>4723000</v>
       </c>
       <c r="G15" s="3">
-        <v>4912300</v>
+        <v>5013000</v>
       </c>
       <c r="H15" s="3">
-        <v>5108800</v>
+        <v>5213500</v>
       </c>
       <c r="I15" s="3">
-        <v>5334700</v>
+        <v>5444000</v>
       </c>
       <c r="J15" s="3">
-        <v>5345600</v>
+        <v>5455100</v>
       </c>
       <c r="K15" s="3">
         <v>4409400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -941,65 +976,65 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9367300</v>
+        <v>9559200</v>
       </c>
       <c r="E17" s="3">
-        <v>11498100</v>
+        <v>11733700</v>
       </c>
       <c r="F17" s="3">
-        <v>10220400</v>
+        <v>10429800</v>
       </c>
       <c r="G17" s="3">
-        <v>10365400</v>
+        <v>10577800</v>
       </c>
       <c r="H17" s="3">
-        <v>11289400</v>
+        <v>11520800</v>
       </c>
       <c r="I17" s="3">
-        <v>11353100</v>
+        <v>11585800</v>
       </c>
       <c r="J17" s="3">
-        <v>11040300</v>
+        <v>11266500</v>
       </c>
       <c r="K17" s="3">
         <v>15032800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5997200</v>
+        <v>6120100</v>
       </c>
       <c r="E18" s="3">
-        <v>2176400</v>
+        <v>2221000</v>
       </c>
       <c r="F18" s="3">
-        <v>3211800</v>
+        <v>3277600</v>
       </c>
       <c r="G18" s="3">
-        <v>1219300</v>
+        <v>1244300</v>
       </c>
       <c r="H18" s="3">
-        <v>-1570100</v>
+        <v>-1602200</v>
       </c>
       <c r="I18" s="3">
-        <v>550000</v>
+        <v>561300</v>
       </c>
       <c r="J18" s="3">
-        <v>1988600</v>
+        <v>2029400</v>
       </c>
       <c r="K18" s="3">
         <v>4721500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,65 +1047,65 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-832000</v>
+        <v>-849100</v>
       </c>
       <c r="E20" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="F20" s="3">
-        <v>-82700</v>
+        <v>-84400</v>
       </c>
       <c r="G20" s="3">
-        <v>-292600</v>
+        <v>-298600</v>
       </c>
       <c r="H20" s="3">
-        <v>-123800</v>
+        <v>-126300</v>
       </c>
       <c r="I20" s="3">
-        <v>76900</v>
+        <v>78500</v>
       </c>
       <c r="J20" s="3">
-        <v>-124300</v>
+        <v>-126900</v>
       </c>
       <c r="K20" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>9124000</v>
+        <v>9310900</v>
       </c>
       <c r="E21" s="3">
-        <v>1810600</v>
+        <v>1847700</v>
       </c>
       <c r="F21" s="3">
-        <v>7757200</v>
+        <v>7916200</v>
       </c>
       <c r="G21" s="3">
-        <v>730200</v>
+        <v>745200</v>
       </c>
       <c r="H21" s="3">
-        <v>3415000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
+        <v>3485000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>628700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>7357600</v>
       </c>
       <c r="K21" s="3">
         <v>5501800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1099,65 +1134,65 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5165200</v>
+        <v>5271100</v>
       </c>
       <c r="E23" s="3">
-        <v>2158300</v>
+        <v>2202600</v>
       </c>
       <c r="F23" s="3">
-        <v>3129100</v>
+        <v>3193200</v>
       </c>
       <c r="G23" s="3">
-        <v>926700</v>
+        <v>945700</v>
       </c>
       <c r="H23" s="3">
-        <v>-1693800</v>
+        <v>-1728500</v>
       </c>
       <c r="I23" s="3">
-        <v>626900</v>
+        <v>639800</v>
       </c>
       <c r="J23" s="3">
-        <v>1864300</v>
+        <v>1902500</v>
       </c>
       <c r="K23" s="3">
         <v>4925100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1460100</v>
+        <v>1490000</v>
       </c>
       <c r="E24" s="3">
-        <v>932800</v>
+        <v>951900</v>
       </c>
       <c r="F24" s="3">
-        <v>765800</v>
+        <v>781500</v>
       </c>
       <c r="G24" s="3">
-        <v>-290900</v>
+        <v>-296800</v>
       </c>
       <c r="H24" s="3">
-        <v>-568900</v>
+        <v>-580600</v>
       </c>
       <c r="I24" s="3">
-        <v>-174800</v>
+        <v>-178400</v>
       </c>
       <c r="J24" s="3">
-        <v>-278400</v>
+        <v>-284100</v>
       </c>
       <c r="K24" s="3">
         <v>1055800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1186,65 +1221,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3705100</v>
+        <v>3781000</v>
       </c>
       <c r="E26" s="3">
-        <v>1225500</v>
+        <v>1250700</v>
       </c>
       <c r="F26" s="3">
-        <v>2363200</v>
+        <v>2411700</v>
       </c>
       <c r="G26" s="3">
-        <v>1217500</v>
+        <v>1242500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1124900</v>
+        <v>-1148000</v>
       </c>
       <c r="I26" s="3">
-        <v>801800</v>
+        <v>818200</v>
       </c>
       <c r="J26" s="3">
-        <v>2142600</v>
+        <v>2186500</v>
       </c>
       <c r="K26" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3705100</v>
+        <v>3781000</v>
       </c>
       <c r="E27" s="3">
-        <v>1225500</v>
+        <v>1250700</v>
       </c>
       <c r="F27" s="3">
-        <v>2363200</v>
+        <v>2411700</v>
       </c>
       <c r="G27" s="3">
-        <v>1217500</v>
+        <v>1242500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1124900</v>
+        <v>-1148000</v>
       </c>
       <c r="I27" s="3">
-        <v>801800</v>
+        <v>818200</v>
       </c>
       <c r="J27" s="3">
-        <v>2142600</v>
+        <v>2186500</v>
       </c>
       <c r="K27" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1302,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1360,65 +1395,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>832000</v>
+        <v>849100</v>
       </c>
       <c r="E32" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="F32" s="3">
-        <v>82700</v>
+        <v>84400</v>
       </c>
       <c r="G32" s="3">
-        <v>292600</v>
+        <v>298600</v>
       </c>
       <c r="H32" s="3">
-        <v>123800</v>
+        <v>126300</v>
       </c>
       <c r="I32" s="3">
-        <v>-76900</v>
+        <v>-78500</v>
       </c>
       <c r="J32" s="3">
-        <v>124300</v>
+        <v>126900</v>
       </c>
       <c r="K32" s="3">
         <v>-216000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3705100</v>
+        <v>3781000</v>
       </c>
       <c r="E33" s="3">
-        <v>1225500</v>
+        <v>1250700</v>
       </c>
       <c r="F33" s="3">
-        <v>2363200</v>
+        <v>2411700</v>
       </c>
       <c r="G33" s="3">
-        <v>1217500</v>
+        <v>1242500</v>
       </c>
       <c r="H33" s="3">
-        <v>-1124900</v>
+        <v>-1148000</v>
       </c>
       <c r="I33" s="3">
-        <v>801800</v>
+        <v>818200</v>
       </c>
       <c r="J33" s="3">
-        <v>2142600</v>
+        <v>2186500</v>
       </c>
       <c r="K33" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1447,41 +1482,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3705100</v>
+        <v>3781000</v>
       </c>
       <c r="E35" s="3">
-        <v>1225500</v>
+        <v>1250700</v>
       </c>
       <c r="F35" s="3">
-        <v>2363200</v>
+        <v>2411700</v>
       </c>
       <c r="G35" s="3">
-        <v>1217500</v>
+        <v>1242500</v>
       </c>
       <c r="H35" s="3">
-        <v>-1124900</v>
+        <v>-1148000</v>
       </c>
       <c r="I35" s="3">
-        <v>801800</v>
+        <v>818200</v>
       </c>
       <c r="J35" s="3">
-        <v>2142600</v>
+        <v>2186500</v>
       </c>
       <c r="K35" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +1545,7 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1523,7 +1558,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1536,268 +1571,268 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3414700</v>
+        <v>3484700</v>
       </c>
       <c r="E41" s="3">
-        <v>1828300</v>
+        <v>1865800</v>
       </c>
       <c r="F41" s="3">
-        <v>2044600</v>
+        <v>2086500</v>
       </c>
       <c r="G41" s="3">
-        <v>1997500</v>
+        <v>2038400</v>
       </c>
       <c r="H41" s="3">
-        <v>4075800</v>
+        <v>4159300</v>
       </c>
       <c r="I41" s="3">
-        <v>1725800</v>
+        <v>1761200</v>
       </c>
       <c r="J41" s="3">
-        <v>2601900</v>
+        <v>2655200</v>
       </c>
       <c r="K41" s="3">
         <v>2169500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17079000</v>
+        <v>17429000</v>
       </c>
       <c r="E42" s="3">
-        <v>13050600</v>
+        <v>13318000</v>
       </c>
       <c r="F42" s="3">
-        <v>13806500</v>
+        <v>14089500</v>
       </c>
       <c r="G42" s="3">
-        <v>10141400</v>
+        <v>10349200</v>
       </c>
       <c r="H42" s="3">
-        <v>10358800</v>
+        <v>10571100</v>
       </c>
       <c r="I42" s="3">
-        <v>13064000</v>
+        <v>13331700</v>
       </c>
       <c r="J42" s="3">
-        <v>13168300</v>
+        <v>13438100</v>
       </c>
       <c r="K42" s="3">
         <v>11178500</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3649900</v>
+        <v>3724600</v>
       </c>
       <c r="E43" s="3">
-        <v>3023100</v>
+        <v>3085000</v>
       </c>
       <c r="F43" s="3">
-        <v>3270100</v>
+        <v>3337100</v>
       </c>
       <c r="G43" s="3">
-        <v>3386900</v>
+        <v>3456300</v>
       </c>
       <c r="H43" s="3">
-        <v>3369200</v>
+        <v>3438200</v>
       </c>
       <c r="I43" s="3">
-        <v>3174600</v>
+        <v>3239600</v>
       </c>
       <c r="J43" s="3">
-        <v>3601900</v>
+        <v>3675700</v>
       </c>
       <c r="K43" s="3">
         <v>8630000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1096700</v>
+        <v>1119200</v>
       </c>
       <c r="E44" s="3">
-        <v>1069500</v>
+        <v>1091400</v>
       </c>
       <c r="F44" s="3">
-        <v>1247200</v>
+        <v>1272800</v>
       </c>
       <c r="G44" s="3">
-        <v>1266500</v>
+        <v>1292500</v>
       </c>
       <c r="H44" s="3">
-        <v>1455800</v>
+        <v>1485600</v>
       </c>
       <c r="I44" s="3">
-        <v>1347100</v>
+        <v>1374700</v>
       </c>
       <c r="J44" s="3">
-        <v>1537900</v>
+        <v>1569400</v>
       </c>
       <c r="K44" s="3">
         <v>3085400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1138900</v>
+        <v>1162200</v>
       </c>
       <c r="E45" s="3">
-        <v>1219700</v>
+        <v>1244700</v>
       </c>
       <c r="F45" s="3">
-        <v>914500</v>
+        <v>933200</v>
       </c>
       <c r="G45" s="3">
-        <v>956600</v>
+        <v>976200</v>
       </c>
       <c r="H45" s="3">
-        <v>949800</v>
+        <v>969300</v>
       </c>
       <c r="I45" s="3">
-        <v>1079400</v>
+        <v>1101500</v>
       </c>
       <c r="J45" s="3">
-        <v>1099700</v>
+        <v>1122300</v>
       </c>
       <c r="K45" s="3">
         <v>1290800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26379100</v>
+        <v>26919600</v>
       </c>
       <c r="E46" s="3">
-        <v>20191200</v>
+        <v>20604900</v>
       </c>
       <c r="F46" s="3">
-        <v>21283000</v>
+        <v>21719100</v>
       </c>
       <c r="G46" s="3">
-        <v>17749000</v>
+        <v>18112700</v>
       </c>
       <c r="H46" s="3">
-        <v>20209400</v>
+        <v>20623500</v>
       </c>
       <c r="I46" s="3">
-        <v>20390900</v>
+        <v>20808700</v>
       </c>
       <c r="J46" s="3">
-        <v>22009700</v>
+        <v>22460700</v>
       </c>
       <c r="K46" s="3">
         <v>20463200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3964300</v>
+        <v>4045500</v>
       </c>
       <c r="E47" s="3">
-        <v>4753500</v>
+        <v>4850900</v>
       </c>
       <c r="F47" s="3">
-        <v>4787300</v>
+        <v>4885400</v>
       </c>
       <c r="G47" s="3">
-        <v>4982600</v>
+        <v>5084700</v>
       </c>
       <c r="H47" s="3">
-        <v>4780600</v>
+        <v>4878500</v>
       </c>
       <c r="I47" s="3">
-        <v>4680500</v>
+        <v>4776400</v>
       </c>
       <c r="J47" s="3">
-        <v>4468200</v>
+        <v>4559700</v>
       </c>
       <c r="K47" s="3">
         <v>4448300</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56994700</v>
+        <v>58162600</v>
       </c>
       <c r="E48" s="3">
-        <v>57571100</v>
+        <v>58750800</v>
       </c>
       <c r="F48" s="3">
-        <v>60383700</v>
+        <v>61621000</v>
       </c>
       <c r="G48" s="3">
-        <v>62893400</v>
+        <v>64182100</v>
       </c>
       <c r="H48" s="3">
-        <v>62919400</v>
+        <v>64208700</v>
       </c>
       <c r="I48" s="3">
-        <v>66045700</v>
+        <v>67399100</v>
       </c>
       <c r="J48" s="3">
-        <v>66512100</v>
+        <v>67875000</v>
       </c>
       <c r="K48" s="3">
         <v>134732800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2194700</v>
+        <v>2239700</v>
       </c>
       <c r="E49" s="3">
-        <v>2191600</v>
+        <v>2236500</v>
       </c>
       <c r="F49" s="3">
-        <v>2315400</v>
+        <v>2362800</v>
       </c>
       <c r="G49" s="3">
-        <v>2420500</v>
+        <v>2470100</v>
       </c>
       <c r="H49" s="3">
-        <v>2380100</v>
+        <v>2428900</v>
       </c>
       <c r="I49" s="3">
-        <v>2388400</v>
+        <v>2437300</v>
       </c>
       <c r="J49" s="3">
-        <v>2305800</v>
+        <v>2353000</v>
       </c>
       <c r="K49" s="3">
         <v>4796600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1855,36 +1890,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5429000</v>
+        <v>5540300</v>
       </c>
       <c r="E52" s="3">
-        <v>5054700</v>
+        <v>5158300</v>
       </c>
       <c r="F52" s="3">
-        <v>5043900</v>
+        <v>5147300</v>
       </c>
       <c r="G52" s="3">
-        <v>4692400</v>
+        <v>4788600</v>
       </c>
       <c r="H52" s="3">
-        <v>3920100</v>
+        <v>4000400</v>
       </c>
       <c r="I52" s="3">
-        <v>3112600</v>
+        <v>3176400</v>
       </c>
       <c r="J52" s="3">
-        <v>2409800</v>
+        <v>2459200</v>
       </c>
       <c r="K52" s="3">
         <v>1723500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1913,36 +1948,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>94961900</v>
+        <v>96907700</v>
       </c>
       <c r="E54" s="3">
-        <v>89762200</v>
+        <v>91601500</v>
       </c>
       <c r="F54" s="3">
-        <v>93813300</v>
+        <v>95735600</v>
       </c>
       <c r="G54" s="3">
-        <v>92737900</v>
+        <v>94638200</v>
       </c>
       <c r="H54" s="3">
-        <v>94209600</v>
+        <v>96140000</v>
       </c>
       <c r="I54" s="3">
-        <v>96618200</v>
+        <v>98598000</v>
       </c>
       <c r="J54" s="3">
-        <v>97705500</v>
+        <v>99707600</v>
       </c>
       <c r="K54" s="3">
         <v>96399600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1955,7 +1990,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1968,181 +2003,181 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5712900</v>
+        <v>5830000</v>
       </c>
       <c r="E57" s="3">
-        <v>5936300</v>
+        <v>6057900</v>
       </c>
       <c r="F57" s="3">
-        <v>7244600</v>
+        <v>7393000</v>
       </c>
       <c r="G57" s="3">
-        <v>5847900</v>
+        <v>5967700</v>
       </c>
       <c r="H57" s="3">
-        <v>7035600</v>
+        <v>7179800</v>
       </c>
       <c r="I57" s="3">
-        <v>6711300</v>
+        <v>6848800</v>
       </c>
       <c r="J57" s="3">
-        <v>8705000</v>
+        <v>8883400</v>
       </c>
       <c r="K57" s="3">
         <v>9262600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>698600</v>
+        <v>713000</v>
       </c>
       <c r="E58" s="3">
-        <v>2020300</v>
+        <v>2061700</v>
       </c>
       <c r="F58" s="3">
-        <v>3423900</v>
+        <v>3494000</v>
       </c>
       <c r="G58" s="3">
-        <v>2861800</v>
+        <v>2920400</v>
       </c>
       <c r="H58" s="3">
-        <v>4953300</v>
+        <v>5054800</v>
       </c>
       <c r="I58" s="3">
-        <v>4884300</v>
+        <v>4984300</v>
       </c>
       <c r="J58" s="3">
-        <v>3619600</v>
+        <v>3693800</v>
       </c>
       <c r="K58" s="3">
         <v>8451800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3613200</v>
+        <v>3687200</v>
       </c>
       <c r="E59" s="3">
-        <v>974500</v>
+        <v>994500</v>
       </c>
       <c r="F59" s="3">
-        <v>1033400</v>
+        <v>1054600</v>
       </c>
       <c r="G59" s="3">
-        <v>1047200</v>
+        <v>1068700</v>
       </c>
       <c r="H59" s="3">
-        <v>1217700</v>
+        <v>1242600</v>
       </c>
       <c r="I59" s="3">
-        <v>675800</v>
+        <v>689700</v>
       </c>
       <c r="J59" s="3">
-        <v>1210900</v>
+        <v>1235700</v>
       </c>
       <c r="K59" s="3">
         <v>4984600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10024800</v>
+        <v>10230200</v>
       </c>
       <c r="E60" s="3">
-        <v>8931100</v>
+        <v>9114200</v>
       </c>
       <c r="F60" s="3">
-        <v>11701900</v>
+        <v>11941700</v>
       </c>
       <c r="G60" s="3">
-        <v>9756900</v>
+        <v>9956800</v>
       </c>
       <c r="H60" s="3">
-        <v>13206600</v>
+        <v>13477300</v>
       </c>
       <c r="I60" s="3">
-        <v>12271400</v>
+        <v>12522800</v>
       </c>
       <c r="J60" s="3">
-        <v>13535500</v>
+        <v>13812800</v>
       </c>
       <c r="K60" s="3">
         <v>15051700</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18828700</v>
+        <v>19214500</v>
       </c>
       <c r="E61" s="3">
-        <v>17212800</v>
+        <v>17565500</v>
       </c>
       <c r="F61" s="3">
-        <v>17830400</v>
+        <v>18195800</v>
       </c>
       <c r="G61" s="3">
-        <v>19022000</v>
+        <v>19411700</v>
       </c>
       <c r="H61" s="3">
-        <v>18168100</v>
+        <v>18540400</v>
       </c>
       <c r="I61" s="3">
-        <v>19060100</v>
+        <v>19450600</v>
       </c>
       <c r="J61" s="3">
-        <v>17969200</v>
+        <v>18337400</v>
       </c>
       <c r="K61" s="3">
         <v>15325800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8519100</v>
+        <v>8693700</v>
       </c>
       <c r="E62" s="3">
-        <v>8358400</v>
+        <v>8529700</v>
       </c>
       <c r="F62" s="3">
-        <v>8312500</v>
+        <v>8482800</v>
       </c>
       <c r="G62" s="3">
-        <v>8350900</v>
+        <v>8522000</v>
       </c>
       <c r="H62" s="3">
-        <v>8884000</v>
+        <v>9066100</v>
       </c>
       <c r="I62" s="3">
-        <v>9144800</v>
+        <v>9332200</v>
       </c>
       <c r="J62" s="3">
-        <v>10505400</v>
+        <v>10720700</v>
       </c>
       <c r="K62" s="3">
         <v>10815300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2229,36 +2264,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37372600</v>
+        <v>38138400</v>
       </c>
       <c r="E66" s="3">
-        <v>34502400</v>
+        <v>35209400</v>
       </c>
       <c r="F66" s="3">
-        <v>37844800</v>
+        <v>38620300</v>
       </c>
       <c r="G66" s="3">
-        <v>37129700</v>
+        <v>37890600</v>
       </c>
       <c r="H66" s="3">
-        <v>40258800</v>
+        <v>41083700</v>
       </c>
       <c r="I66" s="3">
-        <v>40476200</v>
+        <v>41305600</v>
       </c>
       <c r="J66" s="3">
-        <v>42010100</v>
+        <v>42870900</v>
       </c>
       <c r="K66" s="3">
         <v>41192900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2271,7 +2306,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2300,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2329,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2358,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2387,36 +2422,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>52836000</v>
+        <v>53918700</v>
       </c>
       <c r="E72" s="3">
-        <v>50832400</v>
+        <v>51874000</v>
       </c>
       <c r="F72" s="3">
-        <v>50669400</v>
+        <v>51707700</v>
       </c>
       <c r="G72" s="3">
-        <v>49709000</v>
+        <v>50727600</v>
       </c>
       <c r="H72" s="3">
-        <v>49113000</v>
+        <v>50119400</v>
       </c>
       <c r="I72" s="3">
-        <v>51758400</v>
+        <v>52819000</v>
       </c>
       <c r="J72" s="3">
-        <v>52490200</v>
+        <v>53565800</v>
       </c>
       <c r="K72" s="3">
         <v>100924900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2503,36 +2538,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>57589300</v>
+        <v>58769300</v>
       </c>
       <c r="E76" s="3">
-        <v>55259800</v>
+        <v>56392100</v>
       </c>
       <c r="F76" s="3">
-        <v>55968400</v>
+        <v>57115300</v>
       </c>
       <c r="G76" s="3">
-        <v>55608200</v>
+        <v>56747700</v>
       </c>
       <c r="H76" s="3">
-        <v>53950700</v>
+        <v>55056300</v>
       </c>
       <c r="I76" s="3">
-        <v>56141900</v>
+        <v>57292300</v>
       </c>
       <c r="J76" s="3">
-        <v>55695500</v>
+        <v>56836700</v>
       </c>
       <c r="K76" s="3">
         <v>55206700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2561,12 +2596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2595,36 +2630,36 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3705100</v>
+        <v>3781000</v>
       </c>
       <c r="E81" s="3">
-        <v>1225500</v>
+        <v>1250700</v>
       </c>
       <c r="F81" s="3">
-        <v>2363200</v>
+        <v>2411700</v>
       </c>
       <c r="G81" s="3">
-        <v>1217500</v>
+        <v>1242500</v>
       </c>
       <c r="H81" s="3">
-        <v>-1124900</v>
+        <v>-1148000</v>
       </c>
       <c r="I81" s="3">
-        <v>801800</v>
+        <v>818200</v>
       </c>
       <c r="J81" s="3">
-        <v>2142600</v>
+        <v>2186500</v>
       </c>
       <c r="K81" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2637,7 +2672,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2666,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2695,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2724,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2753,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2782,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2811,36 +2846,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8494000</v>
+        <v>8668000</v>
       </c>
       <c r="E89" s="3">
-        <v>6673300</v>
+        <v>6810100</v>
       </c>
       <c r="F89" s="3">
-        <v>7103800</v>
+        <v>7249400</v>
       </c>
       <c r="G89" s="3">
-        <v>5866200</v>
+        <v>5986400</v>
       </c>
       <c r="H89" s="3">
-        <v>4730300</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
+        <v>4827200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>7049300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4837600</v>
       </c>
       <c r="K89" s="3">
         <v>8421300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2853,7 +2888,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2882,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2911,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2940,36 +2975,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6720600</v>
+        <v>-6858300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2809900</v>
+        <v>-2867400</v>
       </c>
       <c r="F94" s="3">
-        <v>-6557400</v>
+        <v>-6691800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3274200</v>
+        <v>-3341300</v>
       </c>
       <c r="H94" s="3">
-        <v>-791000</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
+        <v>-807200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-5361600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5991000</v>
       </c>
       <c r="K94" s="3">
         <v>4935500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2982,7 +3017,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3011,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3040,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3069,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3098,88 +3133,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-223700</v>
+        <v>-228300</v>
       </c>
       <c r="E100" s="3">
-        <v>-4065100</v>
+        <v>-4148400</v>
       </c>
       <c r="F100" s="3">
-        <v>-482700</v>
+        <v>-492600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4674100</v>
+        <v>-4769900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1614300</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+        <v>-1647400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-2635000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1612000</v>
       </c>
       <c r="K100" s="3">
         <v>-8373700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>36600</v>
+        <v>37400</v>
       </c>
       <c r="E101" s="3">
-        <v>-14700</v>
+        <v>-15000</v>
       </c>
       <c r="F101" s="3">
-        <v>-16600</v>
+        <v>-16900</v>
       </c>
       <c r="G101" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H101" s="3">
-        <v>25000</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
+        <v>25500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>53300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-17400</v>
       </c>
       <c r="K101" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1586400</v>
+        <v>1618900</v>
       </c>
       <c r="E102" s="3">
-        <v>-216300</v>
+        <v>-220700</v>
       </c>
       <c r="F102" s="3">
-        <v>47100</v>
+        <v>48100</v>
       </c>
       <c r="G102" s="3">
-        <v>-2078300</v>
+        <v>-2120900</v>
       </c>
       <c r="H102" s="3">
-        <v>2350000</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
+        <v>2398200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-894000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>441200</v>
       </c>
       <c r="K102" s="3">
         <v>4962900</v>

--- a/Financials/Quarterly/CEO_QTR_FIN.xlsx
+++ b/Financials/Quarterly/CEO_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9737E7D1-BD6F-419B-81A3-24D8DF029560}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CEO" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>CEO</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,155 +654,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15679400</v>
+        <v>15622100</v>
       </c>
       <c r="E8" s="3">
-        <v>13954700</v>
+        <v>17406100</v>
       </c>
       <c r="F8" s="3">
-        <v>13707400</v>
+        <v>15158500</v>
       </c>
       <c r="G8" s="3">
-        <v>11822000</v>
+        <v>13491100</v>
       </c>
       <c r="H8" s="3">
-        <v>9918500</v>
+        <v>13252100</v>
       </c>
       <c r="I8" s="3">
+        <v>11429300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9589100</v>
+      </c>
+      <c r="K8" s="3">
         <v>12147100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>13295900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>19754300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3625200</v>
+        <v>3319800</v>
       </c>
       <c r="E9" s="3">
-        <v>4028300</v>
+        <v>5162600</v>
       </c>
       <c r="F9" s="3">
-        <v>3686100</v>
+        <v>3504800</v>
       </c>
       <c r="G9" s="3">
-        <v>3192200</v>
+        <v>3894500</v>
       </c>
       <c r="H9" s="3">
-        <v>3075100</v>
+        <v>3563600</v>
       </c>
       <c r="I9" s="3">
+        <v>3086100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2972900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3569900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3594000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7711700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12054200</v>
+        <v>12302300</v>
       </c>
       <c r="E10" s="3">
-        <v>9926400</v>
+        <v>12243600</v>
       </c>
       <c r="F10" s="3">
-        <v>10021400</v>
+        <v>11653700</v>
       </c>
       <c r="G10" s="3">
-        <v>8629900</v>
+        <v>9596700</v>
       </c>
       <c r="H10" s="3">
-        <v>6843500</v>
+        <v>9688500</v>
       </c>
       <c r="I10" s="3">
+        <v>8343200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6616100</v>
+      </c>
+      <c r="K10" s="3">
         <v>8577200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9701900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>12042600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,37 +840,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>335400</v>
+        <v>895000</v>
       </c>
       <c r="E12" s="3">
-        <v>624500</v>
+        <v>1530100</v>
       </c>
       <c r="F12" s="3">
-        <v>396700</v>
+        <v>324300</v>
       </c>
       <c r="G12" s="3">
-        <v>584700</v>
+        <v>603800</v>
       </c>
       <c r="H12" s="3">
-        <v>507400</v>
+        <v>383500</v>
       </c>
       <c r="I12" s="3">
+        <v>565300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>490600</v>
+      </c>
+      <c r="K12" s="3">
         <v>804200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>665000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>986500</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,66 +906,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>23600</v>
+        <v>-27000</v>
       </c>
       <c r="E14" s="3">
-        <v>1309700</v>
+        <v>58500</v>
       </c>
       <c r="F14" s="3">
-        <v>45300</v>
+        <v>22800</v>
       </c>
       <c r="G14" s="3">
-        <v>268900</v>
+        <v>1266200</v>
       </c>
       <c r="H14" s="3">
-        <v>1537400</v>
+        <v>43800</v>
       </c>
       <c r="I14" s="3">
+        <v>260000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1486300</v>
+      </c>
+      <c r="K14" s="3">
         <v>202000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>205500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>599200</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4039900</v>
+        <v>3786700</v>
       </c>
       <c r="E15" s="3">
-        <v>4368200</v>
+        <v>3360200</v>
       </c>
       <c r="F15" s="3">
-        <v>4723000</v>
+        <v>3905700</v>
       </c>
       <c r="G15" s="3">
-        <v>5013000</v>
+        <v>4223000</v>
       </c>
       <c r="H15" s="3">
-        <v>5213500</v>
+        <v>4566100</v>
       </c>
       <c r="I15" s="3">
+        <v>4846500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5040300</v>
+      </c>
+      <c r="K15" s="3">
         <v>5444000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>5455100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4409400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -975,66 +992,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9559200</v>
+        <v>9408000</v>
       </c>
       <c r="E17" s="3">
-        <v>11733700</v>
+        <v>11810300</v>
       </c>
       <c r="F17" s="3">
-        <v>10429800</v>
+        <v>9241700</v>
       </c>
       <c r="G17" s="3">
-        <v>10577800</v>
+        <v>11344000</v>
       </c>
       <c r="H17" s="3">
-        <v>11520800</v>
+        <v>10083300</v>
       </c>
       <c r="I17" s="3">
+        <v>10226400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>11138100</v>
+      </c>
+      <c r="K17" s="3">
         <v>11585800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11266500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>15032800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6120100</v>
+        <v>6214100</v>
       </c>
       <c r="E18" s="3">
-        <v>2221000</v>
+        <v>5595900</v>
       </c>
       <c r="F18" s="3">
-        <v>3277600</v>
+        <v>5916800</v>
       </c>
       <c r="G18" s="3">
-        <v>1244300</v>
+        <v>2147200</v>
       </c>
       <c r="H18" s="3">
-        <v>-1602200</v>
+        <v>3168800</v>
       </c>
       <c r="I18" s="3">
+        <v>1202900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1549000</v>
+      </c>
+      <c r="K18" s="3">
         <v>561300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2029400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4721500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1046,66 +1077,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-849100</v>
+        <v>105000</v>
       </c>
       <c r="E20" s="3">
-        <v>-18400</v>
+        <v>94600</v>
       </c>
       <c r="F20" s="3">
-        <v>-84400</v>
+        <v>-820800</v>
       </c>
       <c r="G20" s="3">
-        <v>-298600</v>
+        <v>-17800</v>
       </c>
       <c r="H20" s="3">
-        <v>-126300</v>
+        <v>-81600</v>
       </c>
       <c r="I20" s="3">
+        <v>-288700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-122100</v>
+      </c>
+      <c r="K20" s="3">
         <v>78500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-126900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>9310900</v>
+        <v>10105900</v>
       </c>
       <c r="E21" s="3">
-        <v>1847700</v>
+        <v>5144900</v>
       </c>
       <c r="F21" s="3">
-        <v>7916200</v>
+        <v>9001600</v>
       </c>
       <c r="G21" s="3">
-        <v>745200</v>
+        <v>1786300</v>
       </c>
       <c r="H21" s="3">
-        <v>3485000</v>
+        <v>7653200</v>
       </c>
       <c r="I21" s="3">
+        <v>720400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3369200</v>
+      </c>
+      <c r="K21" s="3">
         <v>628700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>7357600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5501800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1130,69 +1175,87 @@
       <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5271100</v>
+        <v>6319100</v>
       </c>
       <c r="E23" s="3">
-        <v>2202600</v>
+        <v>5690400</v>
       </c>
       <c r="F23" s="3">
-        <v>3193200</v>
+        <v>5096000</v>
       </c>
       <c r="G23" s="3">
-        <v>945700</v>
+        <v>2129400</v>
       </c>
       <c r="H23" s="3">
-        <v>-1728500</v>
+        <v>3087100</v>
       </c>
       <c r="I23" s="3">
+        <v>914300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1671100</v>
+      </c>
+      <c r="K23" s="3">
         <v>639800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1902500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4925100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1490000</v>
+        <v>1978400</v>
       </c>
       <c r="E24" s="3">
-        <v>951900</v>
+        <v>1786200</v>
       </c>
       <c r="F24" s="3">
-        <v>781500</v>
+        <v>1440500</v>
       </c>
       <c r="G24" s="3">
-        <v>-296800</v>
+        <v>920300</v>
       </c>
       <c r="H24" s="3">
-        <v>-580600</v>
+        <v>755600</v>
       </c>
       <c r="I24" s="3">
+        <v>-287000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-561300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-178400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-284100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1055800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1220,66 +1283,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3781000</v>
+        <v>4340700</v>
       </c>
       <c r="E26" s="3">
-        <v>1250700</v>
+        <v>3904200</v>
       </c>
       <c r="F26" s="3">
-        <v>2411700</v>
+        <v>3655400</v>
       </c>
       <c r="G26" s="3">
-        <v>1242500</v>
+        <v>1209100</v>
       </c>
       <c r="H26" s="3">
-        <v>-1148000</v>
+        <v>2331600</v>
       </c>
       <c r="I26" s="3">
+        <v>1201200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1109800</v>
+      </c>
+      <c r="K26" s="3">
         <v>818200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2186500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3781000</v>
+        <v>4340700</v>
       </c>
       <c r="E27" s="3">
-        <v>1250700</v>
+        <v>3904200</v>
       </c>
       <c r="F27" s="3">
-        <v>2411700</v>
+        <v>3655400</v>
       </c>
       <c r="G27" s="3">
-        <v>1242500</v>
+        <v>1209100</v>
       </c>
       <c r="H27" s="3">
-        <v>-1148000</v>
+        <v>2331600</v>
       </c>
       <c r="I27" s="3">
+        <v>1201200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1109800</v>
+      </c>
+      <c r="K27" s="3">
         <v>818200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2186500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1307,8 +1388,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1336,8 +1423,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1365,8 +1458,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1394,66 +1493,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>849100</v>
+        <v>-105000</v>
       </c>
       <c r="E32" s="3">
-        <v>18400</v>
+        <v>-94600</v>
       </c>
       <c r="F32" s="3">
-        <v>84400</v>
+        <v>820800</v>
       </c>
       <c r="G32" s="3">
-        <v>298600</v>
+        <v>17800</v>
       </c>
       <c r="H32" s="3">
-        <v>126300</v>
+        <v>81600</v>
       </c>
       <c r="I32" s="3">
+        <v>288700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>122100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-78500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>126900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-216000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3781000</v>
+        <v>4340700</v>
       </c>
       <c r="E33" s="3">
-        <v>1250700</v>
+        <v>3904200</v>
       </c>
       <c r="F33" s="3">
-        <v>2411700</v>
+        <v>3655400</v>
       </c>
       <c r="G33" s="3">
-        <v>1242500</v>
+        <v>1209100</v>
       </c>
       <c r="H33" s="3">
-        <v>-1148000</v>
+        <v>2331600</v>
       </c>
       <c r="I33" s="3">
+        <v>1201200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1109800</v>
+      </c>
+      <c r="K33" s="3">
         <v>818200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2186500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1481,71 +1598,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3781000</v>
+        <v>4340700</v>
       </c>
       <c r="E35" s="3">
-        <v>1250700</v>
+        <v>3904200</v>
       </c>
       <c r="F35" s="3">
-        <v>2411700</v>
+        <v>3655400</v>
       </c>
       <c r="G35" s="3">
-        <v>1242500</v>
+        <v>1209100</v>
       </c>
       <c r="H35" s="3">
-        <v>-1148000</v>
+        <v>2331600</v>
       </c>
       <c r="I35" s="3">
+        <v>1201200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1109800</v>
+      </c>
+      <c r="K35" s="3">
         <v>818200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2186500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1557,8 +1692,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1570,269 +1707,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3484700</v>
+        <v>2256400</v>
       </c>
       <c r="E41" s="3">
-        <v>1865800</v>
+        <v>2070700</v>
       </c>
       <c r="F41" s="3">
-        <v>2086500</v>
+        <v>3368900</v>
       </c>
       <c r="G41" s="3">
-        <v>2038400</v>
+        <v>1803800</v>
       </c>
       <c r="H41" s="3">
-        <v>4159300</v>
+        <v>2017200</v>
       </c>
       <c r="I41" s="3">
+        <v>1970700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4021200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1761200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2655200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2169500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17429000</v>
+        <v>24070900</v>
       </c>
       <c r="E42" s="3">
-        <v>13318000</v>
+        <v>19949900</v>
       </c>
       <c r="F42" s="3">
-        <v>14089500</v>
+        <v>16850000</v>
       </c>
       <c r="G42" s="3">
-        <v>10349200</v>
+        <v>12875600</v>
       </c>
       <c r="H42" s="3">
-        <v>10571100</v>
+        <v>13621400</v>
       </c>
       <c r="I42" s="3">
+        <v>10005400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>10219900</v>
+      </c>
+      <c r="K42" s="3">
         <v>13331700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>13438100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>11178500</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3724600</v>
+        <v>3377700</v>
       </c>
       <c r="E43" s="3">
-        <v>3085000</v>
+        <v>3111500</v>
       </c>
       <c r="F43" s="3">
-        <v>3337100</v>
+        <v>3600900</v>
       </c>
       <c r="G43" s="3">
-        <v>3456300</v>
+        <v>2982500</v>
       </c>
       <c r="H43" s="3">
-        <v>3438200</v>
+        <v>3226300</v>
       </c>
       <c r="I43" s="3">
+        <v>3341500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3324000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3239600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3675700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>8630000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1119200</v>
+        <v>970200</v>
       </c>
       <c r="E44" s="3">
-        <v>1091400</v>
+        <v>839600</v>
       </c>
       <c r="F44" s="3">
-        <v>1272800</v>
+        <v>1082000</v>
       </c>
       <c r="G44" s="3">
-        <v>1292500</v>
+        <v>1055200</v>
       </c>
       <c r="H44" s="3">
-        <v>1485600</v>
+        <v>1230500</v>
       </c>
       <c r="I44" s="3">
+        <v>1249600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1436200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1374700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1569400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3085400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1162200</v>
+        <v>1446100</v>
       </c>
       <c r="E45" s="3">
-        <v>1244700</v>
+        <v>1301200</v>
       </c>
       <c r="F45" s="3">
-        <v>933200</v>
+        <v>1123600</v>
       </c>
       <c r="G45" s="3">
-        <v>976200</v>
+        <v>1203400</v>
       </c>
       <c r="H45" s="3">
-        <v>969300</v>
+        <v>902200</v>
       </c>
       <c r="I45" s="3">
+        <v>943800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>937100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1101500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1122300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1290800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26919600</v>
+        <v>32121300</v>
       </c>
       <c r="E46" s="3">
-        <v>20604900</v>
+        <v>27273000</v>
       </c>
       <c r="F46" s="3">
-        <v>21719100</v>
+        <v>26025400</v>
       </c>
       <c r="G46" s="3">
-        <v>18112700</v>
+        <v>19920500</v>
       </c>
       <c r="H46" s="3">
-        <v>20623500</v>
+        <v>20997600</v>
       </c>
       <c r="I46" s="3">
+        <v>17511000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>19938400</v>
+      </c>
+      <c r="K46" s="3">
         <v>20808700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>22460700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>20463200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4045500</v>
+        <v>3981400</v>
       </c>
       <c r="E47" s="3">
-        <v>4850900</v>
+        <v>4124900</v>
       </c>
       <c r="F47" s="3">
-        <v>4885400</v>
+        <v>3911100</v>
       </c>
       <c r="G47" s="3">
-        <v>5084700</v>
+        <v>4689800</v>
       </c>
       <c r="H47" s="3">
-        <v>4878500</v>
+        <v>4723100</v>
       </c>
       <c r="I47" s="3">
+        <v>4915800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4716500</v>
+      </c>
+      <c r="K47" s="3">
         <v>4776400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4559700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4448300</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>58162600</v>
+        <v>60213100</v>
       </c>
       <c r="E48" s="3">
-        <v>58750800</v>
+        <v>58444700</v>
       </c>
       <c r="F48" s="3">
-        <v>61621000</v>
+        <v>56230500</v>
       </c>
       <c r="G48" s="3">
-        <v>64182100</v>
+        <v>56799100</v>
       </c>
       <c r="H48" s="3">
-        <v>64208700</v>
+        <v>59574000</v>
       </c>
       <c r="I48" s="3">
+        <v>62050100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>62075800</v>
+      </c>
+      <c r="K48" s="3">
         <v>67399100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>67875000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>134732800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2239700</v>
+        <v>2253500</v>
       </c>
       <c r="E49" s="3">
-        <v>2236500</v>
+        <v>2255100</v>
       </c>
       <c r="F49" s="3">
-        <v>2362800</v>
+        <v>2165300</v>
       </c>
       <c r="G49" s="3">
-        <v>2470100</v>
+        <v>2162200</v>
       </c>
       <c r="H49" s="3">
-        <v>2428900</v>
+        <v>2284300</v>
       </c>
       <c r="I49" s="3">
+        <v>2388100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2348200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2437300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2353000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4796600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,8 +2053,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,37 +2088,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5540300</v>
+        <v>4813600</v>
       </c>
       <c r="E52" s="3">
-        <v>5158300</v>
+        <v>5293600</v>
       </c>
       <c r="F52" s="3">
-        <v>5147300</v>
+        <v>5356300</v>
       </c>
       <c r="G52" s="3">
-        <v>4788600</v>
+        <v>4986900</v>
       </c>
       <c r="H52" s="3">
-        <v>4000400</v>
+        <v>4976300</v>
       </c>
       <c r="I52" s="3">
+        <v>4629500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3867500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3176400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2459200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1723500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1947,37 +2158,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>96907700</v>
+        <v>103382900</v>
       </c>
       <c r="E54" s="3">
-        <v>91601500</v>
+        <v>97391200</v>
       </c>
       <c r="F54" s="3">
-        <v>95735600</v>
+        <v>93688600</v>
       </c>
       <c r="G54" s="3">
-        <v>94638200</v>
+        <v>88558600</v>
       </c>
       <c r="H54" s="3">
-        <v>96140000</v>
+        <v>92555400</v>
       </c>
       <c r="I54" s="3">
+        <v>91494500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>92946300</v>
+      </c>
+      <c r="K54" s="3">
         <v>98598000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>99707600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>96399600</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1989,8 +2212,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2002,182 +2227,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5830000</v>
+        <v>5398300</v>
       </c>
       <c r="E57" s="3">
-        <v>6057900</v>
+        <v>4689800</v>
       </c>
       <c r="F57" s="3">
-        <v>7393000</v>
+        <v>3919000</v>
       </c>
       <c r="G57" s="3">
-        <v>5967700</v>
+        <v>3832800</v>
       </c>
       <c r="H57" s="3">
-        <v>7179800</v>
+        <v>3911400</v>
       </c>
       <c r="I57" s="3">
+        <v>3636500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3857000</v>
+      </c>
+      <c r="K57" s="3">
         <v>6848800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8883400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9262600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>713000</v>
+        <v>2925100</v>
       </c>
       <c r="E58" s="3">
-        <v>2061700</v>
+        <v>1010400</v>
       </c>
       <c r="F58" s="3">
-        <v>3494000</v>
+        <v>689300</v>
       </c>
       <c r="G58" s="3">
-        <v>2920400</v>
+        <v>1993200</v>
       </c>
       <c r="H58" s="3">
-        <v>5054800</v>
+        <v>3377900</v>
       </c>
       <c r="I58" s="3">
+        <v>2823400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4886900</v>
+      </c>
+      <c r="K58" s="3">
         <v>4984300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3693800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8451800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3687200</v>
+        <v>6202200</v>
       </c>
       <c r="E59" s="3">
-        <v>994500</v>
+        <v>4378100</v>
       </c>
       <c r="F59" s="3">
-        <v>1054600</v>
+        <v>5282100</v>
       </c>
       <c r="G59" s="3">
-        <v>1068700</v>
+        <v>2985400</v>
       </c>
       <c r="H59" s="3">
-        <v>1242600</v>
+        <v>4255600</v>
       </c>
       <c r="I59" s="3">
+        <v>3166200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4285600</v>
+      </c>
+      <c r="K59" s="3">
         <v>689700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1235700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4984600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10230200</v>
+        <v>14525600</v>
       </c>
       <c r="E60" s="3">
-        <v>9114200</v>
+        <v>10078300</v>
       </c>
       <c r="F60" s="3">
-        <v>11941700</v>
+        <v>9890400</v>
       </c>
       <c r="G60" s="3">
-        <v>9956800</v>
+        <v>8811400</v>
       </c>
       <c r="H60" s="3">
-        <v>13477300</v>
+        <v>11545000</v>
       </c>
       <c r="I60" s="3">
+        <v>9626100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>13029600</v>
+      </c>
+      <c r="K60" s="3">
         <v>12522800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>13812800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15051700</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19214500</v>
+        <v>18441900</v>
       </c>
       <c r="E61" s="3">
-        <v>17565500</v>
+        <v>19008100</v>
       </c>
       <c r="F61" s="3">
-        <v>18195800</v>
+        <v>18576200</v>
       </c>
       <c r="G61" s="3">
-        <v>19411700</v>
+        <v>16982000</v>
       </c>
       <c r="H61" s="3">
-        <v>18540400</v>
+        <v>17591400</v>
       </c>
       <c r="I61" s="3">
+        <v>18766900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>17924500</v>
+      </c>
+      <c r="K61" s="3">
         <v>19450600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>18337400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>15325800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8693700</v>
+        <v>8594700</v>
       </c>
       <c r="E62" s="3">
-        <v>8529700</v>
+        <v>8421300</v>
       </c>
       <c r="F62" s="3">
-        <v>8482800</v>
+        <v>8404900</v>
       </c>
       <c r="G62" s="3">
-        <v>8522000</v>
+        <v>8246400</v>
       </c>
       <c r="H62" s="3">
-        <v>9066100</v>
+        <v>8201000</v>
       </c>
       <c r="I62" s="3">
+        <v>8238900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8764900</v>
+      </c>
+      <c r="K62" s="3">
         <v>9332200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>10720700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10815300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2205,8 +2468,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2234,8 +2503,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2263,37 +2538,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38138400</v>
+        <v>41562300</v>
       </c>
       <c r="E66" s="3">
-        <v>35209400</v>
+        <v>37507700</v>
       </c>
       <c r="F66" s="3">
-        <v>38620300</v>
+        <v>36871500</v>
       </c>
       <c r="G66" s="3">
-        <v>37890600</v>
+        <v>34039800</v>
       </c>
       <c r="H66" s="3">
-        <v>41083700</v>
+        <v>37337400</v>
       </c>
       <c r="I66" s="3">
+        <v>36631900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>39719000</v>
+      </c>
+      <c r="K66" s="3">
         <v>41305600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>42870900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>41192900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2305,8 +2592,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2334,8 +2623,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2363,8 +2658,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,8 +2693,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2421,37 +2728,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>53918700</v>
+        <v>56139600</v>
       </c>
       <c r="E72" s="3">
-        <v>51874000</v>
+        <v>54276200</v>
       </c>
       <c r="F72" s="3">
-        <v>51707700</v>
+        <v>52127600</v>
       </c>
       <c r="G72" s="3">
-        <v>50727600</v>
+        <v>50150900</v>
       </c>
       <c r="H72" s="3">
-        <v>50119400</v>
+        <v>49990000</v>
       </c>
       <c r="I72" s="3">
+        <v>49042500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>48454500</v>
+      </c>
+      <c r="K72" s="3">
         <v>52819000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>53565800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>100924900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2479,8 +2798,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2508,8 +2833,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2537,37 +2868,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>58769300</v>
+        <v>61820700</v>
       </c>
       <c r="E76" s="3">
-        <v>56392100</v>
+        <v>59883500</v>
       </c>
       <c r="F76" s="3">
-        <v>57115300</v>
+        <v>56817100</v>
       </c>
       <c r="G76" s="3">
-        <v>56747700</v>
+        <v>54518800</v>
       </c>
       <c r="H76" s="3">
-        <v>55056300</v>
+        <v>55218000</v>
       </c>
       <c r="I76" s="3">
+        <v>54862600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>53227300</v>
+      </c>
+      <c r="K76" s="3">
         <v>57292300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>56836700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>55206700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2595,71 +2938,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3781000</v>
+        <v>4340700</v>
       </c>
       <c r="E81" s="3">
-        <v>1250700</v>
+        <v>3904200</v>
       </c>
       <c r="F81" s="3">
-        <v>2411700</v>
+        <v>3655400</v>
       </c>
       <c r="G81" s="3">
-        <v>1242500</v>
+        <v>1209100</v>
       </c>
       <c r="H81" s="3">
-        <v>-1148000</v>
+        <v>2331600</v>
       </c>
       <c r="I81" s="3">
+        <v>1201200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1109800</v>
+      </c>
+      <c r="K81" s="3">
         <v>818200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2186500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3869300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2671,8 +3032,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2700,8 +3063,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2729,8 +3098,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2758,8 +3133,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2787,8 +3168,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2816,8 +3203,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2845,37 +3238,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8668000</v>
+        <v>8320500</v>
       </c>
       <c r="E89" s="3">
-        <v>6810100</v>
+        <v>9394600</v>
       </c>
       <c r="F89" s="3">
-        <v>7249400</v>
+        <v>8380100</v>
       </c>
       <c r="G89" s="3">
-        <v>5986400</v>
+        <v>6583900</v>
       </c>
       <c r="H89" s="3">
-        <v>4827200</v>
+        <v>7008600</v>
       </c>
       <c r="I89" s="3">
+        <v>5787600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4666800</v>
+      </c>
+      <c r="K89" s="3">
         <v>7049300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>4837600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>8421300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2887,8 +3292,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2916,8 +3323,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2945,8 +3358,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2974,37 +3393,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6858300</v>
+        <v>-7656500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2867400</v>
+        <v>-6980200</v>
       </c>
       <c r="F94" s="3">
-        <v>-6691800</v>
+        <v>-6630500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3341300</v>
+        <v>-2772200</v>
       </c>
       <c r="H94" s="3">
-        <v>-807200</v>
+        <v>-6469500</v>
       </c>
       <c r="I94" s="3">
+        <v>-3230300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-780400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5361600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5991000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>4935500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3016,8 +3447,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3045,8 +3478,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3074,8 +3513,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3103,8 +3548,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3132,91 +3583,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-228300</v>
+        <v>-475500</v>
       </c>
       <c r="E100" s="3">
-        <v>-4148400</v>
+        <v>-3706400</v>
       </c>
       <c r="F100" s="3">
-        <v>-492600</v>
+        <v>-220700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4769900</v>
+        <v>-4010600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1647400</v>
+        <v>-476200</v>
       </c>
       <c r="I100" s="3">
+        <v>-4611400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1592600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2635000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1612000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-8373700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>37400</v>
+        <v>-2900</v>
       </c>
       <c r="E101" s="3">
-        <v>-15000</v>
+        <v>-6300</v>
       </c>
       <c r="F101" s="3">
-        <v>-16900</v>
+        <v>36200</v>
       </c>
       <c r="G101" s="3">
-        <v>3900</v>
+        <v>-14500</v>
       </c>
       <c r="H101" s="3">
-        <v>25500</v>
+        <v>-16400</v>
       </c>
       <c r="I101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K101" s="3">
         <v>53300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-17400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1618900</v>
+        <v>185700</v>
       </c>
       <c r="E102" s="3">
-        <v>-220700</v>
+        <v>-1298200</v>
       </c>
       <c r="F102" s="3">
-        <v>48100</v>
+        <v>1565100</v>
       </c>
       <c r="G102" s="3">
-        <v>-2120900</v>
+        <v>-213400</v>
       </c>
       <c r="H102" s="3">
-        <v>2398200</v>
+        <v>46500</v>
       </c>
       <c r="I102" s="3">
+        <v>-2050500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2318500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-894000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>441200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4962900</v>
       </c>
     </row>
